--- a/tests/Templates/GroupTagTests_MergeLabels2.xlsx
+++ b/tests/Templates/GroupTagTests_MergeLabels2.xlsx
@@ -94,7 +94,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
